--- a/qsdsan/systems/bwaise/results/sysB_lca.xlsx
+++ b/qsdsan/systems/bwaise/results/sysB_lca.xlsx
@@ -1048,13 +1048,13 @@
         <v>27</v>
       </c>
       <c r="B35">
-        <v>405539.8910907477</v>
+        <v>405532.7246919409</v>
       </c>
       <c r="C35">
-        <v>11355116.95054093</v>
+        <v>11354916.29137434</v>
       </c>
       <c r="D35">
-        <v>2.12607955969247</v>
+        <v>2.127125297204742</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -1068,7 +1068,7 @@
         <v>25957.98300003773</v>
       </c>
       <c r="D36">
-        <v>0.004860252633910193</v>
+        <v>0.004862729137486916</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -1076,13 +1076,13 @@
         <v>29</v>
       </c>
       <c r="B37">
-        <v>768085.0074808989</v>
+        <v>768085.0074808986</v>
       </c>
       <c r="C37">
-        <v>-2304255.022442697</v>
+        <v>-2306774.376275814</v>
       </c>
       <c r="D37">
-        <v>-0.4314380490198961</v>
+        <v>-0.4321298374033262</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -1096,7 +1096,7 @@
         <v>-406439.721193968</v>
       </c>
       <c r="D38">
-        <v>-0.07609989287133119</v>
+        <v>-0.07613866897436114</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -1110,7 +1110,7 @@
         <v>-2449887.7047346</v>
       </c>
       <c r="D39">
-        <v>-0.4587056386354529</v>
+        <v>-0.4589393684927895</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -1124,7 +1124,7 @@
         <v>-579770.8141900059</v>
       </c>
       <c r="D40">
-        <v>-0.1085536047514608</v>
+        <v>-0.1086089173886182</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -1138,7 +1138,7 @@
         <v>-61971.80829840001</v>
       </c>
       <c r="D41">
-        <v>-0.01160331465314691</v>
+        <v>-0.01160922703104263</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -1152,7 +1152,7 @@
         <v>-94571.20002396786</v>
       </c>
       <c r="D42">
-        <v>-0.01770707392819655</v>
+        <v>-0.01771609642871649</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -1160,13 +1160,13 @@
         <v>35</v>
       </c>
       <c r="B43">
-        <v>29246.43426704999</v>
+        <v>29246.43426705</v>
       </c>
       <c r="C43">
         <v>-143307.527908545</v>
       </c>
       <c r="D43">
-        <v>-0.02683223846689675</v>
+        <v>-0.02684591062337503</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -1174,7 +1174,7 @@
         <v>15</v>
       </c>
       <c r="C44">
-        <v>5340871.13474879</v>
+        <v>5338151.121749083</v>
       </c>
       <c r="D44">
         <v>1</v>
